--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r109_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2440" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -679,10 +691,10 @@
       <c r="I19">
         <f>((C19-C18)^2+(D19- D18)^2)^.5</f>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="2" t="s">
+      <c r="J19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L19" t="n">
@@ -726,28 +738,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="2">
+      <c r="A21" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s" s="2">
+      <c r="C21" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -772,28 +784,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I23" t="s" s="2">
+      <c r="I23" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -939,10 +951,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="2" t="s">
+      <c r="J28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -986,28 +998,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="2">
+      <c r="C30" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1032,28 +1044,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1141,10 +1153,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1188,28 +1200,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="2">
+      <c r="A37" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="2">
+      <c r="C37" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1234,28 +1246,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="2">
+      <c r="C39" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="2">
+      <c r="D39" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="2">
+      <c r="I39" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1372,10 +1384,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1419,28 +1431,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1465,28 +1477,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1586,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1633,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1679,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1747,10 +1759,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1794,28 +1806,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1840,28 +1852,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1949,10 +1961,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1996,28 +2008,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2042,28 +2054,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2122,10 +2134,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2169,28 +2181,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2215,28 +2227,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2324,10 +2336,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K76" s="2" t="s">
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2371,28 +2383,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="2">
+      <c r="A78" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s" s="2">
+      <c r="C78" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2417,28 +2429,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="2">
+      <c r="C80" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="2">
+      <c r="D80" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="2">
+      <c r="I80" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2642,10 +2654,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2689,28 +2701,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2735,28 +2747,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2873,10 +2885,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2920,28 +2932,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2966,28 +2978,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3104,10 +3116,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3151,28 +3163,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3197,28 +3209,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3335,10 +3347,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3382,28 +3394,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3428,28 +3440,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3595,10 +3607,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3642,28 +3654,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3688,28 +3700,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3855,10 +3867,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3902,28 +3914,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3948,28 +3960,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4086,10 +4098,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4133,28 +4145,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4179,28 +4191,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4346,10 +4358,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4393,28 +4405,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4439,28 +4451,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4548,10 +4560,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4595,28 +4607,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4641,28 +4653,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4808,10 +4820,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4855,28 +4867,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4901,28 +4913,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5039,10 +5051,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5086,28 +5098,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5132,28 +5144,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5357,10 +5369,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5404,28 +5416,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5450,28 +5462,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5617,10 +5629,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="2" t="s">
+      <c r="J190" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5664,28 +5676,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="2">
+      <c r="C192" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5710,28 +5722,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5848,10 +5860,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5895,28 +5907,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5941,28 +5953,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6108,10 +6120,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6155,28 +6167,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6201,28 +6213,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6339,10 +6351,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="2" t="s">
+      <c r="J215" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6386,28 +6398,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="2">
+      <c r="A217" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="2">
+      <c r="C217" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6432,28 +6444,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="2">
+      <c r="C219" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="2">
+      <c r="D219" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="2">
+      <c r="I219" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6570,10 +6582,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="2" t="s">
+      <c r="J223" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6617,28 +6629,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="2">
+      <c r="A225" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="2">
+      <c r="C225" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6663,28 +6675,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="2">
+      <c r="B227" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="2">
+      <c r="C227" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="2">
+      <c r="D227" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="2">
+      <c r="E227" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="2">
+      <c r="F227" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="2">
+      <c r="G227" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="2">
+      <c r="H227" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="2">
+      <c r="I227" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6772,10 +6784,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6819,28 +6831,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6865,28 +6877,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7032,10 +7044,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7079,28 +7091,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7125,28 +7137,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7205,10 +7217,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="2" t="s">
+      <c r="J245" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7252,28 +7264,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="2">
+      <c r="A247" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="2">
+      <c r="C247" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7298,28 +7310,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="2">
+      <c r="C249" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="2">
+      <c r="D249" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="2">
+      <c r="I249" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7378,10 +7390,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7425,28 +7437,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7471,28 +7483,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7638,10 +7650,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7685,28 +7697,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7731,28 +7743,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7811,10 +7823,10 @@
       <c r="I266">
         <f>((C266-C265)^2+(D266- D265)^2)^.5</f>
       </c>
-      <c r="J266" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K266" s="2" t="s">
+      <c r="J266" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K266" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L266" t="n">
